--- a/static/files/example.xlsx
+++ b/static/files/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="290" yWindow="100" windowWidth="9540" windowHeight="4510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,17 +390,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>41734.565300925926</v>
+        <v>45752.565300925926</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>41734.153738425928</v>
+        <v>45752.153738425928</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>41735.532534722224</v>
+        <v>45753.532534722224</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>41737.374803240738</v>
+        <v>45755.374803240738</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>41739.088194444441</v>
+        <v>45757.088194444441</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>41739.757372685184</v>
+        <v>45757.757372685184</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>41739.111643518518</v>
+        <v>45757.111643518518</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -487,7 +487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -499,7 +499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
